--- a/Yandex.xlsx
+++ b/Yandex.xlsx
@@ -640,17 +640,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/yabloko_party/</t>
+          <t>https://foodandhealth.ru/frukty/yabloko/</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Партия ЯБЛОКО — Instagram</t>
+          <t>Яблоко: сорта, польза и калорийность | Food and Health</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Подписчиков: 11 тыс.О себе: Наша цель — сделать Россию свободной, современной, европейской страной 21 века. #партияяблоко #явлинский #политика #громчеголос</t>
+          <t>Яблоко – это плод дерева, принадлежащего к семейству Розовых. Исследователи предполагаю, что первые сады из этих деревьев появились на плодородной почве горных хребтов Казахстана. Археологи нашли доказательства, что... Читать ещё</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
@@ -660,7 +660,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>http://yabs.yandex.ru/count/WYiejI_zOF813H40X1naE-zV9GEO-mK0yW8GW8200J58jX5V000003W4wBhxy0o00G680U_EE901je77nPt8h9m7e06mYylame20W0Ae0R2Bo-H2k07kxQhx7S01NDW1hkFW6-01nh7s5-W1s06O0fxjz1UW0fRLwWN00k_EEDW20l02oRBRdWtu0l3gyU2XnhZLvG6O0x3o6AW36kCq-0Jjem-81UsZ3v05au4Ue0NQr0Ie1Q3n0x05eF43k0N8q0T7-kUdjRLB3j46HuuT7xQrImu0ONSOfF0gT3Ym1u20c0ou1xG6q0SEs0S7u0U62l47dW086HqQLmkKWf3BglK2W0e1c0hvt2h9gWiGTvLJsc5t003vXh83fAe50DaBw0ljem_m2mc838YIthu1gGpWonrj3mqHl-WCA-0DWu20GCVqdx_Qjksb3g0Em8Gzs0u2eG_7zjKMqS8w3iJK4Z_m4W6e4uEknkRfbQIH5k0JoD07e1J8q0Ue59E17j3weFO5w1GCq1Mub-Ns1TWLmOhsxAEFlFnZyA0MqF_2-0N95j0MY9BUlW615vWNjEVn6gWN2S0N3DWNm8Gzu1Uixx3s1VWNu8N2-0MP6A0O4h0OxQ_6-0KR066AF1fode-SNROnwCzSYGjETVEKZZeaGjDMCyXtrGobbm60KEMh7IoA25h3rqd--5u_gaHoUITGXYrDHW_krHeT8ru82NETqqFFvFN-MQXECH3ATl80~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D1%8F%D0%B1%D0%BB%D0%BE%D0%BA%D0%BE&amp;etext=2202.h3f28lX7qq_wAgh5w1q34epzdG9KTIZmPW4lIcMmNTx5emlnbnJmY2RrZnZoaGln.7f0e5a63a950d3700728d3932338f1e8e0d5affb</t>
+          <t>http://yabs.yandex.ru/count/WZWejI_zOFG1TH40P1rYYqgmBIYrFWK0z08GW8200J5vmn5V000003ZsiqZekllm38010OW1xyuua06cqUddauFSY0UW0Tp_XEN2W8200gW1tF-4vKAu0UxjgliTm05Ss06ku-0Ru076iVONw07O0PW2dktq5w02bjNg1S02xyuus082y0Ajalp01VW2yEhnuA76kDNb0PW3jBKOg0CQ_JJu1EBD3uW5uiqFa0MJWHwW1RxX1AW5zFi3i0Nq-mEu1SZG1tWBKEz8IKfYqGPuduLcIKbAS000002f1prUJ5d-JtSui0U0W9Wyk0Uq1j073jW71-07XWhn1vu021aT6bSBb8AGowhr0e0A0PWA-TmgoQeB4Em6YiWzNW00WVFrpAIg1G3P2-WBuiqFy0i9Y0o8ajw-0QaCuCiTRGyD4R_e32lW3OE0W43ubi3wZgcIfTWE0g4Fn_RL5XA04HGoYh9aX-8JF_0I4eWJ0f0JP9WJ0QWJrVB8muZuf94Mu1F8q0UW5CZG1wWKau4UqFgWzWNe50pG5RYNvVO5s1N1YlRieu-y_6Fme1RG_yBu1SaMq1Q8ajw-0O4Nc1Uqv_4Qg1S9m1SCs1V0X3tW5wpliFO5-1VWXSBu1PaOe1WIi1YmnyRu1He0OOey6dAUZvnTjd7eprmtBdXE7HAByWnotrLTb9uB04ANhtPG5D4oDHkusl1rlZ--34ZLNIxl1Ceefib86LGn3eWX90nsJWzDazVxPw8wnMWesya3~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D1%8F%D0%B1%D0%BB%D0%BE%D0%BA%D0%BE&amp;etext=2202.QXENcK3kBGWCgPtiNwVr1tYQiuRJ08WQ5WXIKSZjMNh2c2d6eG92bWlmZmp3dHJ1.aa1c2a2ce728157a4d70d77d1d038e53934156d3</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Вкусные и свежие продукты. Доставка сегодня или завтра. Москва и область
+          <t>Продукты питания с доставкой. 24 часа. Интернет-магазин. Москва и область.
 Контактная информация+7 (495) 788-XX-XX Показать
 круглосуточно
 Москва</t>
@@ -683,7 +683,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>http://yabs.yandex.ru/count/WcCejI_zO082pH80D25aE-zVCj9dx0K00WCGW8200J58jX5V000003W4ufN8y0Y00G680Tx-HP01Ze2Mxv_3eU86e06GdvoemO20W0Ae0P2VdAX1k07Wx9te7i01NDW1WD-M7k01eihf6UW1Z06O0iB4h06W0fpPmm_00jx-HTW20l02oRBRdWtu0l3gyU2XnhZLvG6O0zgM9g031AW36kHN-0JnbGA81V6L0f05cCq5e0NaLAW5qqQm1TD6k0MhjW701VkIaW781O6K9KVwvwUrjKiEqGP7ZXqVjhLB3W1XTnYay2fqEB07W82O3BW7j0RG1mxO1mVW1uOAyGUU00WP7HfN2vI2aCxiuGU02W6O2ldSAi4AyUzt6VAWep_9gWiGTvLJsc5t003vXh83fAe50DaBw0lnbGBm2mc83FJ1thu1gGnCDtA5IrANl-WCA-0DWu20G8aEDwZzrawKhCVqdx_Qjksb3g0Em8Gzs0u2eG_3zIXSZyArFvA-_HV84C2GaWArVwjkKtCMF_0I0QWJWwx6vkcLf94Mu1EhjW6W5Aks0QWKcCq5i1I0nlqKk1I0rQK6o1G2q1JznBwh2zWKZC6ozmNe50p85RNamVW4q1MCmRBt1TWLmOhsxAEFlFnZyA0MqF_2-0N95j0MzC7UlW615vWNk_hN7QWN2S0N3DWNm8Gzu1VmbRRr1VWNlBV9zmMP6A0O4h0OxQ_6-0KL066AF1fol8zSuh8Puu9JtZobfmw9m6cheahF1G0XMxxQnr81HF-HkF-e4g0uNvgC2BY2QtGCeVG1kcgxg8wE4Cfsd000~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D1%8F%D0%B1%D0%BB%D0%BE%D0%BA%D0%BE&amp;etext=2202.h3f28lX7qq_wAgh5w1q34epzdG9KTIZmPW4lIcMmNTx5emlnbnJmY2RrZnZoaGln.7f0e5a63a950d3700728d3932338f1e8e0d5affb</t>
+          <t>http://yabs.yandex.ru/count/Wd4ejI_zO0G2FHC0D29YYqgmGJ3pjmK010CGW8200J5vmn5V000003ZsiqZYbSZm28010OW1tlv5a06EW9RldyEXuWQW0P2VdAZ1W8200gW1a9-Sg46u0U3idUWUm05Ss060tvOUu06YokaPw06C0PW2miIi0Q02dDd33y02tlv5s082y0Ajalp01VW2yEhnuA76kDNb0PW3sfOce0C4g0CQv5Vu1F6L0eW5yPK2a0MCpGMW1UHKg0NJHh05qqQu1QYs0S05-vAI0SW5WPGbU0jGxqX9IcBH1dYVXMP9IKfm00000Aa7FLvCMVvFTpYm1u20c3ou1xG6q0SEs0S7u0U62l47dW086HqQLmkKWf3ExE47W0e1c0hvt2h12aMQA6baeAC_oQeB4Em6YiWzNW00WVFrpAIg1G3P2-WByPK2y0i9Y0pqmTw-0QaCJ3ToXKjIbx_e32lW3OE0W4293ZUe_TPEbApubi3wZgcIfTWE0g4Fm_KeN8_2jJ-IllqNo130a982-10IW14KjN-hRbDp5Z_m4XA84mAG4sIO4m6e4zNooCE8-AIH5k0JgBO1e1IejW6e58pD1R0KWCRz5BWKWDMb1iWK0j0K_SI-gmlO58p1ilS5w1GCo1MrvC7u1D0LZC6ozmNO5S6AzkoZZxpyO_2W5j3_mlW5oHRG5lJ1thu1WHUO5xlwrnse5md05mpO5y24FU0Ny9MszGNu5xotoVS5cHYW61Am6BxJnlW5501XYZmQShoFNEAocP4BdbM7nB8y0PMUkm2IORxQ_qpD1XyWISeVYJkGAW6AQwR9Y2vKCGwWzW6wQlkeZeuQodQS~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D1%8F%D0%B1%D0%BB%D0%BE%D0%BA%D0%BE&amp;etext=2202.QXENcK3kBGWCgPtiNwVr1tYQiuRJ08WQ5WXIKSZjMNh2c2d6eG92bWlmZmp3dHJ1.aa1c2a2ce728157a4d70d77d1d038e53934156d3</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>http://yabs.yandex.ru/count/WXSejI_zOCC1RH00T1jaE-zVluqNBmK0mm8GW8200J58jX5V000003W4yAY7e0g00G680TUSHv01h8QhogY0jg07e06cdzdXn820W0Ae0QQVsU54k07U_xd07y01NDW1gitb7-01Wl3w4EW1eW6O0fRTXXUW0hAkh1R00jUSHzW20l02oRBRdWtu0l3gyU2XnhZLvG6O0-FG7g031gW36ljO-0IWlWM81Q2-1P05xkm5e0Nbsm6e1UNR0R05vTi1k0MmwW701Uxi1SW5iEe1H_hdfxMrImxH1aUE7H-sjKiE065t6AJmAdGui0U0W9WCk0U01T073jW71-07f0_n1vu021aT6bSBb8AGc0hvt2h9gWiGTvLJsc5t003vXh83fAe50DaBw0kWlWNm2mc83FJ1thu1gGpWonrj3mqHl-WCA-0DWu20G8aEMfu7TsVjfiVqdx_Qjksb3g0Em8Gzs0u2eG_kb1d840XvdTlgt1uMF_0I0QWJWwx6vkcLf94Mu1Emwkxi1UWK3DWLmOhsxAEFlFnZyA0MqF_2-0N95j0MzC7UlW615vWNYSQo4QWN2S0N3DWNm8GzcHYW60Mm6DQZnlW56G1zaa139EmHoMNRtc-HoC05JxPv2ZOT4i3ILiM0dWi0CfEl8d0HNvCmKm3HTIHk89s2kGnLM3fSc04CFPnfCdfmBzZe6CBj0tJLTb4T7I6KxJW1~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D1%8F%D0%B1%D0%BB%D0%BE%D0%BA%D0%BE&amp;etext=2202.h3f28lX7qq_wAgh5w1q34epzdG9KTIZmPW4lIcMmNTx5emlnbnJmY2RrZnZoaGln.7f0e5a63a950d3700728d3932338f1e8e0d5affb</t>
+          <t>http://yabs.yandex.ru/count/WY8ejI_zOCK1nH00H1nYYqgmgxZ5uWK0nG8GW8200J5vmn5V000003ZsiqZmg8UW2e010OW1rvn7a06iXglAg82se0UW0QQVsU74W8200gW1ff_PuKIu0Tx_kS0Vm05Ss06gpUKVu062yFeGw06Y0PW2bjs65w02igwi5i02rvn7s082y0Ajalp01VW2yEhnuA76kDNb0PW3uz0Ue0C6g0CQ-rZu1A2-1OW5eBu5a0Nkx0MW1UNR0QW5vTi1i0Nbsm6u1R3g0S05xkm5o0MmwW5u2r3lI4bAOj46U9-5Pab9Id000000gGSzNanP_aztEB07W82OFBW7W0NG1mxO1mVW1wGFyGUU00WP7HfN2vI2a9WA-TmgoQeB4Em6YiWzNW00WVFrpAIg1G3P2-WBeBu5y0i9Y0pqmTw-0QaCuCiTRGyD4R_e32lW3OE0W4293bgU1tTdxQRubi3wZgcIfTWE0g4FxfGPo108-10IUPtRwjmU5Z_m4XA84mAG4sIO4m6e4zNooCE8-AIH5k0JiEhkx0Ne50pO5S6AzkoZZxpyO_2W5j3_mlW5oHRG5lJ1thu1WHUO5ud6iX6e5md05mpO5y24FPaOe1W5i1YMtyRu1HW0VP90GoJi4SbbszzlaSWB5zoV3Wc0QQkXGCy509dALn5enDT4mzHiyFMHfDIHk8Dq2kSoL6BfSA46CFJefib8ILGn3k3u0Rfg-wYEZXhATfm0~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D1%8F%D0%B1%D0%BB%D0%BE%D0%BA%D0%BE&amp;etext=2202.QXENcK3kBGWCgPtiNwVr1tYQiuRJ08WQ5WXIKSZjMNh2c2d6eG92bWlmZmp3dHJ1.aa1c2a2ce728157a4d70d77d1d038e53934156d3</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -949,17 +949,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>https://polzavred-edi.ru/abrikosy-polza-i-vred-dlja-zdorovja-organizma/</t>
+          <t>https://www.gastronom.ru/product/abrikos-963</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Абрикосы: польза и вред для здоровья организма</t>
+          <t>Абрикос - описание продукта на Gastronom.ru</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Абрикос представляет собой косточковый фрукт. Он обладает овальной формой, ярко-оранжевой окраской и шершавой кожурой. Родиной такого продукта считается Китай. Выращивается фрукт более двух тысячелетий, в то время как... Читать ещё</t>
+          <t>Абрикос — круглый бархатистый жёлто-оранжевый плод абрикосового дерева (Plunus ... В Европу абрикосы завезли древние греки более двух тысячелетий назад. У этого плода много названий. Читать ещё</t>
         </is>
       </c>
       <c r="D10" s="1" t="n">
@@ -969,17 +969,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>https://www.gastronom.ru/product/abrikos-963</t>
+          <t>https://polzavred-edi.ru/abrikosy-polza-i-vred-dlja-zdorovja-organizma/</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Абрикос - описание продукта на Gastronom.ru</t>
+          <t>Абрикосы: польза и вред для здоровья организма</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Абрикос — круглый бархатистый жёлто-оранжевый плод абрикосового дерева (Plunus ... В Европу абрикосы завезли древние греки более двух тысячелетий назад. У этого плода много названий. Читать ещё</t>
+          <t>Абрикос представляет собой косточковый фрукт. Он обладает овальной формой, ярко-оранжевой окраской и шершавой кожурой. Родиной такого продукта считается Китай. Выращивается фрукт более двух тысячелетий, в то время как... Читать ещё</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
@@ -989,38 +989,15 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>http://yabs.yandex.ru/count/WYaejI_zOF81_H0091mwLgPju0pgyGK0yW8GW8200J5EjX5V000003W4wBhxy0o00G680U_EE901Xlclv8VqmBS7e06-seBbme20W0Ae0RxQWkL2k07kxQhx7S01NDW1hkFW6-01nh7s5-W1s06O0fxjz1UW0fRLwWN00k_EEDW20l02-Ss4uW7u0l3gyU2XnhZLvG6O0zxV7gW36kzA-0I6znE81ORt4v05au4Ue0MaYWQe1Sc81R05oOW5k0N8q0T7-kUdjRLB3j46HuuT7xQrImu06MS4EpGiT3Ym1u20c2Iu1xG6q0SEs0S7u0U62l47hVhQg_OOdd-KWf3BglK2W0e1c0hvt2h9gWiGHPsd0Xbd003lQmC4fAe50DaBw0k6znFm2mc838YIthu1gGpWonrj3mqHl-WCA-0DWu20GCVqdx_Qjksbs0u2eG_7zjKMocR5QIxP2J_m4W6e4uEknkRfbQIH5k0JoD07e1J8q0Ue59E17j3weFO5w1GCq1Mub-Ns1TWLmOhsxAEFlFnZyA0MqF_2-0N95j0MY9BUlW615vWNjEVn6gWN2S0N3DWNm8Gzu1Uixx3s1VWNu8N2-0MP6A0O4h0OqhN6-0KS066AF1fode-SNROnwCzSYGjETVEKZZeaGjDMCyXtrGobbm60KEMh7HH5TCBB1gurV9tlZo_xKNMJopk1CcnfCdfmhzRe6F52I9Zhd1vw9g_tpq9rYe5GjfC7~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D0%B0%D0%B1%D1%80%D0%B8%D0%BA%D0%BE%D1%81&amp;etext=2202.o859PevH1moDyxf80zRhDkQ9pBFUCb3O0nlBwiN7hWtlbnFiYnFsdHNibnh2cXlk.5268f3c7e4fb6dc71dc8cb25e8f686805c57a104</t>
+          <t>http://yabs.yandex.ru/count/WZeejI_zOFa1XH40b1q7718XtYiqsWK0-G8GW8200J5-mn5V000003ZsiqZQXCYGZeKxa06ywx-7nVFdzmQW0O24axmtg07MnPQDFxW1n87fgHx00LpO0VQwhXpW0TAbaHte0N2O0gYK_nMW0jIB_nN00ew5EzW20l02dUsZl0du0l3gyU2XnhZLvG6O0xUhAAW36kPj-0IGzWc81P3s2P05xDWEe0N0WmEe1VN20h05zS82k0MNtWF01QR2emF81OxKQdWBKEz8IKfYqGPuduLcIKbAS000002f1s-OP6v1KNSui0U0W9WCk0Uq1j073jW71-07XWhn1wtwsgls69v_b8AGwiN_2e0A0PWA-TmgmGgWolVLxUwXFycg2n2hoI-XRvW004guHisagWK0sGle2v3s2V0B2OWCzC7UlW6f3E3B7MqF3H6_w0mhu0s3W810-9R0-ewfagNO3WAX3xwDcnV84C2m4D0GnvwlN_WG4iIoSUgKJXS_y18I0QWJrVB8muZuf94Mu1ENtWEW59VU0wWKxDWEqQaBs1IasOFu1UWK3D0LfDc3-0NO5S6AzkoZZxpyO_2W5j3_mlW5oHRG5lJ1thu1WHUO5wFfqo6e5md05mpO5y24FPaOe1WGi1YMtyRu1Ha0VP90G-Ju4GcNJOrEsh3IOiMkBXUSPXsImJearb1R3LfwBW08MRxQGL54nzHiu6B3r_d--B9_L3LGHYzDHagWYd40G1-WwqqM1VBeU24Eeg5inma0~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D0%B0%D0%B1%D1%80%D0%B8%D0%BA%D0%BE%D1%81&amp;etext=2202.jQsoUOB1HkQsSNRL_dmKCjhCfOFlrtECuoRoNoKe9fdhZ3BsdXV4Z3ZweGx0YWpm.d6d2a6e08347e466df7d4102e0fbfdaf3edbf682</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Каталог Абрикосы от магазина Продуктов питания</t>
+          <t>Абрикосы, 1кг – С доставкой!</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Доставка продуктов на дом. Круглосуточно. Москва и Московская область.
-Контактная информация+7 (495) 788-XX-XX Показать
-круглосуточно
-Москва</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>http://yabs.yandex.ru/count/WZKejI_zOFG1NH40z1mwLgPj9QXPWmK0z08GW8200J5EjX5V000003W4seJ8a8w5Ev01lEk_XyNpv_S6e060X9EyDwW1riMMZJ-u0SI1wQaUm05Ss07skguSu07IfP4Tw05mc0AebFyLe0BKY_yLm0AEXJlO0WBm0ldDXE81-0Bmwl7WeSQurUK1c0EtgoYW0mIe0nhcRVW4m_K8Y0N3zGYG1RxP3g05ejm2g0MSeWAm1PoY0hW5hDu3m0McmgC3o0MEr6f7-kUdjRLB3j46HuuT7xQrImu06MS4EpGiT3Ym1u20c2Iu1xG6q0SEs0S7u0U62l47hVhQg_OOdd-KWf3gnVyAW0e1c0hvt2h12hrcMyfzyA4_oQeB44MTfm8PPm00xsi31AIg1G3P2-WBm_K8y0i9Y0pqmTw-0QaCuCiTRGyD4R_e32lW3OE0W4293WQVvkH59h37z9-_shRjfTWE0g4FlesR5yIoSUgKJXS_y181g1E3hiRcwPMaaHRW4wpU0w0KhDu3g1I-sGxHgGlO5AJPW_W5w1GCq1MasOFu1TWLmOhsxAEFlFnZyA0MqF_2-0N95j0MzC7UlW615vWNe-dJ8QWN2S0N3DWNm8GzcHYW612m6B2jnlW56m1zaa13PFSH2PTDY4xQiCXYnQuQ5vpovYcTHIQ2qrOpY8wLeVGo012wVBM3HtnDzCBB1fygW9G_4ZSWLG8KPqoJ4G5NU8sE8K1zWAxtQHJ88-E5E0Y4iXqd~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D0%B0%D0%B1%D1%80%D0%B8%D0%BA%D0%BE%D1%81&amp;etext=2202.o859PevH1moDyxf80zRhDkQ9pBFUCb3O0nlBwiN7hWtlbnFiYnFsdHNibnh2cXlk.5268f3c7e4fb6dc71dc8cb25e8f686805c57a104</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Абрикосы, 1кг – С доставкой!</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Онлайн маркет продуктов питания! Без наценок! −10% по промокоду new1 · Доставка/самовывоз. Широкий ассортимент. Нал/безнал. Выгодные цены · Продавец: Интернет-магазин "Сельский бутик". А… Читать ещё
 Крафтовые продукты
@@ -1029,26 +1006,26 @@
 Промокод - new1
 Контактная информация+7 (495) 255-XX-XX Показать
 пн-вс 9:00-20:00
-Рейтинг магазина на Маркете: 4 из 5
+ Магазин на Маркете
 Москва</t>
         </is>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>http://yabs.yandex.ru/count/WYmejI_zODy15H40r1mwLgPjkRG1aWK0tm8GW8200J5EjX5V000003W4mjBCaWg00G680P2eI901wE6UXO_tvOq7e07Ej-knnO20W0Ae0Swtwx55k068q_dE7y01NDW1eeY05E01fFhn4-W1e06W0kYA_HR00f2eIDW20l02-Ss4uW7u0l3gyU2XnhZLvG6O0_cR7Q031gW36jIs0VW4uyO7Y0NZnWUG1PND2Q05-QO2g0NbzG6m1UNr0RW5mBW2hDUH7KVwvwUrjKiEqGP7ZXqVjhLB3W0PPmGxD2nqEB07W82O9BW7j0RG1mxO1mVW1uOAyGUj-jghzXYUVvI2aBJ5lldSAicg2n15dQS26MS00Ezh0mIagWK0sGle2-F61_0B2OWCfCBUlW6f3E3B7MqF3H6_w0mhu0s3W810YGw-C9ag69MiFv0EWEemc0x7z9-_shRjfGwW3e7CFDWE0g4FsG_W3m604A6K-Uwto9QBvma_y181g1E3hiRcwPMaaHRW4y2u0g0KmBW2g1ILpGdWbRVi1UWK3D0Ll8sx-0NO5S6AzkoZZxpyO_2W5j3_mlW5oHRG5gJ2thu1WHUO5-Fxm1Ie5md05mpO5y24FPaOe1WEi1ZIjSRu1Ha0VP90GsJp4RdBXlFycUjlmMbjdj9CXqHKsce6dFbT_Z0F3KLyVUUFxzsZIXYNzvYmCmOemvCcemVtKesE4N9TtHaVe4am2CxsmpzrYe5GjfC7~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D0%B0%D0%B1%D1%80%D0%B8%D0%BA%D0%BE%D1%81&amp;etext=2202.o859PevH1moDyxf80zRhDkQ9pBFUCb3O0nlBwiN7hWtlbnFiYnFsdHNibnh2cXlk.5268f3c7e4fb6dc71dc8cb25e8f686805c57a104</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="D12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>http://yabs.yandex.ru/count/WZaejI_zOE41VH40v1q7718Xx1FJzGK0uG8GW8200J5-mn5V000003ZsiqZ2qioI2e010OW1aAX8a07IlVgNte76l0UW0Swtwx75W8200gW1phVhiKMu0OZJ-SuVm05Ss06YY80Ku06a-l4Jw06W0Q02w8hz5i02aAX8s082y0ATxQEy2VW2yEhnuA76kDNb0PW3j9GWe0C4g0CQuhq1-0Jio0Q81Up81f05tvaAe0N4W0Ae1UFL0R05uzK1k0NyomBIfTSNU0jGxqX9IcBH1dYVXMP9IKfm00000Aa7RvXaRa5HTpYm1u20c0ou1xG6q0SEs0S7u0U62l47hVhQg_OOdd-KWf2qnRuBW0e1c0hvt2h9gWiGgyaleM-O001Ak4RDfAe50DaBw0lio0Rm2mc83AJ2thu1gGpWonrj3mqHl-WCA-0DWu20G8aE1f_cv4Kci3-G3hNlCvWE-9R0-ewfagLYe0x0X3tO3WAX3w6K-H3840pu41A04HHIkc_d2MCDF_0I4W6e4zNooCE8-AIH5k0J_Ci2e1JyomAe5D-P2k2Lj-m5w1GCq1MyZRlu1TWLmOhsxAEFlFnZyA0MqF_2-0N95j0MfCBUlW615vWNu_l05AWN2S0N3DWNm8GzcHYW60wm6BxJnlW5601zaa13PEiHkSk6-_oPQt31wTCX6QT3OZsUG4hFNG19obTx68puIimVYTj7bK0kxmJAQAN9IEbJCGwmw-hE-G1DWaLmjXyEgbECXhATF000~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D0%B0%D0%B1%D1%80%D0%B8%D0%BA%D0%BE%D1%81&amp;etext=2202.jQsoUOB1HkQsSNRL_dmKCjhCfOFlrtECuoRoNoKe9fdhZ3BsdXV4Z3ZweGx0YWpm.d6d2a6e08347e466df7d4102e0fbfdaf3edbf682</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>Купить саженцы Абрикоса из питомника с доставкой...</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Саженцы ЗКС по низким ценам! Быстрая доставка! Москва и МО! Большой ассортимент! · Закрытая корневая система. Скидки на большие заказы. Низкие цены. Более 3000 товаров. Москва и область
 Плодовые
@@ -1060,6 +1037,34 @@
 Москва</t>
         </is>
       </c>
+      <c r="D13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>http://yabs.yandex.ru/count/WXeejI_zOCG1XH00r1i7718XFD1WKGK0n08GW8200J5-mn5V000003ZsiqYMmiQm1O010OW1qQ59a06se9hQrU3FsGUW0RYznOJ6W8200gW1kBt5X4Qu0SwFYTqVm05Ss06KceSPu06esAuOw05Ke0AipWB00j6XITW20l02dUsZl0du0l3gyU2XnhZLvG6O0vEr9Q031gW36ePv-0JW-mU81U3x1v05ku0Ce0MEjmAe1Q630h05eOC2k0NGXdWBKEz8IKfYqGPuduLcIKbAS000002f1s-OP6v1KNSui0U0W9WCk0Uq1j073jW71-07XWhn1wtwsgls69v_b8AGbgS1W0e1c0hvt2h9gWiGgyaleM-O001Ak4RDfAe50DaBw0lW-mVm2mc838YIthu1gGpWonrj3mqHl-WCA-0DWu20G8aElZ2PAXYLhFYMmFgEgPAbs0u2eG-Wcj8Ko108-10IW14KmzsBtEpt4J_m4XA84mAe4zNooCE8-AIH5k0Jq8O3e1JGXWEe5Bk03EWK3DWLmOhsxAEFlFnZyA0MqF_2-0N95j0MY9BUlW615vWNrBIg6wWN2S0N3DWNm8GzcHYW60Mm69RVnlW5601zaa139EmHgSkMWmi-M-aPwdH8WCSJNEcv0214-Me7ZFYQw9UQ3RvJ02bz96uVLGAvl3qCO9HHIvEHygTY760-G5TB4Pp5xnO5SgEXR2SF~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D0%B0%D0%B1%D1%80%D0%B8%D0%BA%D0%BE%D1%81&amp;etext=2202.jQsoUOB1HkQsSNRL_dmKCjhCfOFlrtECuoRoNoKe9fdhZ3BsdXV4Z3ZweGx0YWpm.d6d2a6e08347e466df7d4102e0fbfdaf3edbf682</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Абрикосы 1 кг / vodovoz.ru</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Заказать доставку воды и продуктов в компании Водовоз.RU. Скидки! Подарки! · Круглосуточный сервис. Постоянные скидки. Контроль качества
+Вода 19 литров
+Кулеры для воды
+Минеральная вода
+Доставка продуктов
+Контактная информация+7 (495) 921-XX-XX Показать
+круглосуточно
+Рейтинг магазина на Маркете: 4 из 5
+Москва</t>
+        </is>
+      </c>
       <c r="D14" s="1" t="n">
         <v>13</v>
       </c>
@@ -1067,7 +1072,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>http://yabs.yandex.ru/count/WYCejI_zOEK1pH0091mwLgPj5WQMXGK0vG8GW8200J5EjX5V000003W4klpYv0s00G680SlyI901lfopmjtudDi6e07euTNlnO20W0Ae0UZXrUz5k07-_jxP7y01NDW1aFcn8E01fAMr1UW1bWAO0lYGuXMW0hZgYXF00ilyIDW20l02-Ss4uW7u0l3gyU2XnhZLvG6O0-EP7w032AW36knH-0J8yG-81SZn3v05XUSGe0Mqx0Ie1O651B05WOK4k0NmeWH7-kUdjRLB3j46HuuT7xQrImu06MS4EpGiT3Ym1u20c2Iu1xG6q0SEs0S7u0U62l47hVhQg_OOdd-KWf2SjSK9W0e1c0hvt2h9gWiGHPsd0Xbd003lQmC4fAe50DaBw0l8yG_m2mc838YIthu1gGpWonrj3mqHl-WCA-0DWu20G8aEQ22MpHoIgiVqdx_Qjksbs0u2eG_GZyWPo10C9aBC6Qx-7p_m4W6e4uEknkRfbQIH5k0JyA84e1JmeWIe58NdwEMM-0Ne50pG5UZbblW5s1N1YlRieu-y_6Fme1RG_yBu1SaMq1Q8ajw-0O4Nc1VDxCC3g1S9m1SCs1V0X3sP6A0O1B0OqhN6-0KQ07sIG4Dayn6vouQxoEgfueAdtJm5fGu9i6chOahF1G0Xp5SxWCJNH3EyRF2j0aZv8t43gHBCvPr06Suq6Jsu5snq364VeAjjEdl0julgQ0EXR2SF~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D0%B0%D0%B1%D1%80%D0%B8%D0%BA%D0%BE%D1%81&amp;etext=2202.o859PevH1moDyxf80zRhDkQ9pBFUCb3O0nlBwiN7hWtlbnFiYnFsdHNibnh2cXlk.5268f3c7e4fb6dc71dc8cb25e8f686805c57a104</t>
+          <t>http://yabs.yandex.ru/count/WZ4ejI_zOES1FH40L1q7718Xz0ef0GK0vm8GW8200J5-mn5V000003ZsiqYw_EBa3O010OW1o_n8a06-dBF2tVYSsmQW0UZXrU_5W8200gW1wE7LxqMu0Vx-tjaVm05Ss06G-R4Wu06afRK5w06M0fW2-93Y5Q02kEgA4y02o_n8s082y0ATxQEy2VW2yEhnuA76kDNb0PW3j9CVe0C8g0CQ-bBu18JJ3eW5XDCEa0M5vn2W1OQy1AW5sjm3i0NQt0Eu1V2Y17WBKEz8IKfYqGPuduLcIKbAS000002f1s-OP6v1KNSui0U0W9WCk0Uq1j073jW71-07XWhn1wtwsgls69v_b8AGdBN52O0A0PWA-TmgoQeB4Al9Bw5lc000IhX6pQIg1G3P2-WBXDCEy0i9Y0o8ajw-0QaCuCiTRGyD4R_e32lW3OE0W4293cWWbiqSaghubi3wZgcIfTWE0g4Fq8_86SWG3FWG4ideJIzN-1y_y18IY1C2a1Dac1C1g1FLyiZ3YFYaaHRW4_2Y1A0KyA84g1I5v-ZbblW5w1GCq1NevPRu1TWLmOhsxAEFlFnZyA0MqF_2-0N95j0MY9BUlW615vWNpUp30wWN2S0N3DWNm8GzcHYW60Im6B37nlW5601zaa13PEiHkSk6myZggOyBxbI71EYqrL2bvmA0aEQh7KZYQw9hQZRuMW6a_96uWrG9v_9Ee8nkceoKH1NZ0FW1kjgkimTy-wYEDXhATl80~1?from=yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=%D0%B0%D0%B1%D1%80%D0%B8%D0%BA%D0%BE%D1%81&amp;etext=2202.jQsoUOB1HkQsSNRL_dmKCjhCfOFlrtECuoRoNoKe9fdhZ3BsdXV4Z3ZweGx0YWpm.d6d2a6e08347e466df7d4102e0fbfdaf3edbf682</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -1305,17 +1310,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>https://ru.wikipedia.org/wiki/Qiwi</t>
+          <t>https://ibank.qiwi.ru/</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Qiwi — Википедия</t>
+          <t>ibank.qiwi.ru</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>3 Киви Банк. 4 QIWI Блокчейн Технологии. 5 Акционеры. ... Группа QIWI образована в 2007 году[2]. В этом же году на терминалах QIWI был запущен сервис «Личный кабинет», который впоследствии был переименован в «QIWI Кошелёк». Читать ещё</t>
+          <t>Ссылки на страницу содержат: предварительную регистрацию на сайте Банка - Qiwi....</t>
         </is>
       </c>
       <c r="D10" s="1" t="n">
@@ -1325,17 +1330,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>https://qiwi-vhod.com/</t>
+          <t>https://ru.wikipedia.org/wiki/Qiwi</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Личный кабинет QIWI — войти в кошелёк через интернет...</t>
+          <t>Qiwi — Википедия</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Как войти в личный кабинет QIWI Wallet по номеру мобильного телефона? Вход в онлайн-кошелёк через терминал и мобильное приложение. Читать ещё</t>
+          <t>3 Киви Банк. 4 QIWI Блокчейн Технологии. 5 Акционеры. ... Группа QIWI образована в 2007 году[2]. В этом же году на терминалах QIWI был запущен сервис «Личный кабинет», который впоследствии был переименован в «QIWI Кошелёк». Читать ещё</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
